--- a/Feature-Analysis/Resize Feature/s_10_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_10_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.58664351853</v>
+        <v>738157.58664351853</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.58747685188</v>
+        <v>738157.58747685188</v>
       </c>
       <c r="C3" s="0">
         <v>72.00000174343586</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.58747685188</v>
+        <v>738157.58747685188</v>
       </c>
       <c r="C4" s="0">
         <v>72.00000174343586</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.58788194449</v>
+        <v>738157.58788194449</v>
       </c>
       <c r="C5" s="0">
         <v>107.00000301003456</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.58834490739</v>
+        <v>738157.58834490739</v>
       </c>
       <c r="C6" s="0">
         <v>146.9999972730875</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.58858796302</v>
+        <v>738157.58858796302</v>
       </c>
       <c r="C7" s="0">
         <v>168.00000406801701</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.58903935191</v>
+        <v>738157.58903935191</v>
       </c>
       <c r="C8" s="0">
         <v>207.00000375509262</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.5895023148</v>
+        <v>738157.5895023148</v>
       </c>
       <c r="C9" s="0">
         <v>246.99999801814556</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.58974537032</v>
+        <v>738157.58974537032</v>
       </c>
       <c r="C10" s="0">
         <v>267.99999475479126</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.59019675921</v>
+        <v>738157.59019675921</v>
       </c>
       <c r="C11" s="0">
         <v>306.99999444186687</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.59067129635</v>
+        <v>738157.59067129635</v>
       </c>
       <c r="C12" s="0">
         <v>348.00000339746475</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.59090277774</v>
+        <v>738157.59090277774</v>
       </c>
       <c r="C13" s="0">
         <v>367.99999549984932</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.59136574075</v>
+        <v>738157.59136574075</v>
       </c>
       <c r="C14" s="0">
         <v>407.99999982118607</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.59182870365</v>
+        <v>738157.59182870365</v>
       </c>
       <c r="C15" s="0">
         <v>447.99999408423901</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.59209490742</v>
+        <v>738157.59209490742</v>
       </c>
       <c r="C16" s="0">
         <v>471.00000008940697</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.59252314817</v>
+        <v>738157.59252314817</v>
       </c>
       <c r="C17" s="0">
         <v>508.00000056624413</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.59277777781</v>
+        <v>738157.59277777781</v>
       </c>
       <c r="C18" s="0">
         <v>530.00000193715096</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.59321759257</v>
+        <v>738157.59321759257</v>
       </c>
       <c r="C19" s="0">
         <v>567.99999698996544</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.59366898146</v>
+        <v>738157.59366898146</v>
       </c>
       <c r="C20" s="0">
         <v>606.99999667704105</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.59391203709</v>
+        <v>738157.59391203709</v>
       </c>
       <c r="C21" s="0">
         <v>628.00000347197056</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.59437499999</v>
+        <v>738157.59437499999</v>
       </c>
       <c r="C22" s="0">
         <v>667.9999977350235</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.59486111114</v>
+        <v>738157.59486111114</v>
       </c>
       <c r="C23" s="0">
         <v>710.0000012665987</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.59509259264</v>
+        <v>738157.59509259264</v>
       </c>
       <c r="C24" s="0">
         <v>730.00000342726707</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.59554398153</v>
+        <v>738157.59554398153</v>
       </c>
       <c r="C25" s="0">
         <v>769.00000311434269</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.59600694443</v>
+        <v>738157.59600694443</v>
       </c>
       <c r="C26" s="0">
         <v>808.99999737739563</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.59622685181</v>
+        <v>738157.59622685181</v>
       </c>
       <c r="C27" s="0">
         <v>827.99999490380287</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.59671296296</v>
+        <v>738157.59671296296</v>
       </c>
       <c r="C28" s="0">
         <v>869.99999843537807</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.59716435184</v>
+        <v>738157.59716435184</v>
       </c>
       <c r="C29" s="0">
         <v>908.99999812245369</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.59739583335</v>
+        <v>738157.59739583335</v>
       </c>
       <c r="C30" s="0">
         <v>929.00000028312206</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.59785879625</v>
+        <v>738157.59785879625</v>
       </c>
       <c r="C31" s="0">
         <v>968.999994546175</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.59833333339</v>
+        <v>738157.59833333339</v>
       </c>
       <c r="C32" s="0">
         <v>1010.0000035017729</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.59856481478</v>
+        <v>738157.59856481478</v>
       </c>
       <c r="C33" s="0">
         <v>1029.9999956041574</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.59902777779</v>
+        <v>738157.59902777779</v>
       </c>
       <c r="C34" s="0">
         <v>1069.9999999254942</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.5992592593</v>
+        <v>738157.5992592593</v>
       </c>
       <c r="C35" s="0">
         <v>1090.0000020861626</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.59971064818</v>
+        <v>738157.59971064818</v>
       </c>
       <c r="C36" s="0">
         <v>1129.0000017732382</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.60018518521</v>
+        <v>738157.60018518521</v>
       </c>
       <c r="C37" s="0">
         <v>1170.0000006705523</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.60041666671</v>
+        <v>738157.60041666671</v>
       </c>
       <c r="C38" s="0">
         <v>1190.0000028312206</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.60087962961</v>
+        <v>738157.60087962961</v>
       </c>
       <c r="C39" s="0">
         <v>1229.9999970942736</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.60134259262</v>
+        <v>738157.60134259262</v>
       </c>
       <c r="C40" s="0">
         <v>1270.0000014156103</v>
